--- a/项目计划/前端技术框架搭建计划表.xlsx
+++ b/项目计划/前端技术框架搭建计划表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AT$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AT$42</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>《前端技术框架搭建》时间安排与成本统计</t>
   </si>
@@ -142,9 +142,6 @@
     <t>webpack开发环境搭建</t>
   </si>
   <si>
-    <t>文件打包的用法</t>
-  </si>
-  <si>
     <t>依赖库的安装学习与实践</t>
   </si>
   <si>
@@ -176,15 +173,6 @@
   </si>
   <si>
     <t>我要投诉</t>
-  </si>
-  <si>
-    <t>vue.js 集成</t>
-  </si>
-  <si>
-    <t>政务云APP页面开发</t>
-  </si>
-  <si>
-    <t>vue框架下开发的页面集成到开发环境</t>
   </si>
   <si>
     <t>路由管理</t>
@@ -235,9 +223,6 @@
   <si>
     <t xml:space="preserve">图片裁剪
 </t>
-  </si>
-  <si>
-    <t>未完成</t>
   </si>
   <si>
     <t>1：实现固定尺寸的裁剪
@@ -348,6 +333,10 @@
   </si>
   <si>
     <t>需要完善</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpack文件打包的用法</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -1857,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2152,22 +2141,256 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2200,12 +2423,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2233,262 +2450,22 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2680,10 +2657,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,7 +2738,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3063,10 +3040,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AS46"/>
+  <dimension ref="B1:AS45"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C32" colorId="9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="C20" colorId="9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3077,10 +3054,10 @@
     <col min="4" max="4" width="2.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="32.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="44.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="2" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11.75" style="2" customWidth="1"/>
     <col min="13" max="13" width="23.875" style="2" hidden="1" customWidth="1"/>
@@ -3100,52 +3077,52 @@
   <sheetData>
     <row r="1" spans="2:45" ht="15" customHeight="1"/>
     <row r="2" spans="2:45" ht="39.950000000000003" customHeight="1">
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="99"/>
-      <c r="AK2" s="99"/>
-      <c r="AL2" s="99"/>
-      <c r="AM2" s="99"/>
-      <c r="AN2" s="99"/>
-      <c r="AO2" s="99"/>
-      <c r="AP2" s="99"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="203"/>
+      <c r="AJ2" s="203"/>
+      <c r="AK2" s="203"/>
+      <c r="AL2" s="203"/>
+      <c r="AM2" s="203"/>
+      <c r="AN2" s="203"/>
+      <c r="AO2" s="203"/>
+      <c r="AP2" s="203"/>
+      <c r="AQ2" s="203"/>
+      <c r="AR2" s="203"/>
+      <c r="AS2" s="203"/>
     </row>
     <row r="3" spans="2:45" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="3"/>
@@ -3187,29 +3164,29 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="101"/>
+      <c r="I4" s="205"/>
       <c r="J4" s="16"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
       <c r="V4" s="53"/>
       <c r="W4" s="53"/>
       <c r="X4" s="53"/>
@@ -3222,13 +3199,13 @@
       <c r="AE4" s="53"/>
       <c r="AF4" s="53"/>
       <c r="AG4" s="53"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
+      <c r="AH4" s="206"/>
+      <c r="AI4" s="206"/>
       <c r="AJ4" s="69"/>
       <c r="AK4" s="70"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
+      <c r="AL4" s="206"/>
+      <c r="AM4" s="206"/>
+      <c r="AN4" s="206"/>
       <c r="AO4" s="90"/>
       <c r="AP4" s="90"/>
       <c r="AQ4" s="90"/>
@@ -3240,15 +3217,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="7">
-        <f>SUM(L17:L37)</f>
-        <v>280</v>
+        <f>SUM(L17:L36)</f>
+        <v>224</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="7">
         <f>C5/8</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>6</v>
@@ -3258,24 +3235,24 @@
         <v>7</v>
       </c>
       <c r="I5" s="5">
-        <f>SUMIF(AH17:AH37,H5,AI17:AI37)+SUMIF(AM17:AM37,H5,AN17:AN37)+SUMIF(AR17:AR37,H5,AS17:AS37)</f>
+        <f>SUMIF(AH17:AH36,H5,AI17:AI36)+SUMIF(AM17:AM36,H5,AN17:AN36)+SUMIF(AR17:AR36,H5,AS17:AS36)</f>
         <v>0</v>
       </c>
       <c r="J5" s="19">
-        <f>SUMIF(AH17:AH37,H5,L17:L37)</f>
+        <f>SUMIF(AH17:AH36,H5,L17:L36)</f>
         <v>0</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
       <c r="X5" s="18"/>
@@ -3306,15 +3283,15 @@
         <v>8</v>
       </c>
       <c r="C6" s="7">
-        <f>SUM(AI17:AI37)</f>
-        <v>32</v>
+        <f>SUM(AI17:AI36)</f>
+        <v>200</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" ref="E6:E7" si="0">C6/8</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>6</v>
@@ -3324,24 +3301,24 @@
         <v>9</v>
       </c>
       <c r="I6" s="5">
-        <f>SUMIF(AH17:AH37,H6,AI17:AI37)+SUMIF(AM17:AM37,H6,AN17:AN37)+SUMIF(AR17:AR37,H6,AS17:AS37)</f>
-        <v>32</v>
+        <f>SUMIF(AH17:AH36,H6,AI17:AI36)+SUMIF(AM17:AM36,H6,AN17:AN36)+SUMIF(AR17:AR36,H6,AS17:AS36)</f>
+        <v>96</v>
       </c>
       <c r="J6" s="19">
-        <f>SUMIF(AH17:AH37,H6,L17:L37)</f>
+        <f>SUMIF(AH17:AH36,H6,L17:L36)</f>
         <v>120</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
       <c r="X6" s="18"/>
@@ -3374,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7">
-        <f>SUM(AN17:AN37)+SUM(AS17:AS37)</f>
+        <f>SUM(AN17:AN36)+SUM(AS17:AS36)</f>
         <v>0</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -3392,24 +3369,24 @@
         <v>2</v>
       </c>
       <c r="I7" s="5">
-        <f>SUMIF(AH17:AH37,H7,AI17:AI37)+SUMIF(AM17:AM37,H7,AN17:AN37)+SUMIF(AR17:AR37,H7,AS17:AS37)</f>
-        <v>0</v>
+        <f>SUMIF(AH17:AH36,H7,AI17:AI36)+SUMIF(AM17:AM36,H7,AN17:AN36)+SUMIF(AR17:AR36,H7,AS17:AS36)</f>
+        <v>104</v>
       </c>
       <c r="J7" s="19">
-        <f>SUMIF(AH17:AH37,H7,L17:L37)</f>
-        <v>160</v>
+        <f>SUMIF(AH17:AH36,H7,L17:L36)</f>
+        <v>104</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
@@ -3445,7 +3422,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="19">
-        <f>SUMIF(AH17:AH37,H8,L17:L37)</f>
+        <f>SUMIF(AH17:AH36,H8,L17:L36)</f>
         <v>0</v>
       </c>
       <c r="K8" s="17"/>
@@ -3494,7 +3471,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="19">
-        <f>SUMIF(AH17:AH37,H9,L17:L37)</f>
+        <f>SUMIF(AH17:AH36,H9,L17:L36)</f>
         <v>0</v>
       </c>
       <c r="K9" s="17"/>
@@ -3543,7 +3520,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="19">
-        <f>SUMIF(AH17:AH37,H10,L17:L37)</f>
+        <f>SUMIF(AH17:AH36,H10,L17:L36)</f>
         <v>0</v>
       </c>
       <c r="K10" s="17"/>
@@ -3592,7 +3569,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="19">
-        <f>SUMIF(AH17:AH37,H11,L17:L37)</f>
+        <f>SUMIF(AH17:AH36,H11,L17:L36)</f>
         <v>0</v>
       </c>
       <c r="K11" s="17"/>
@@ -3680,91 +3657,91 @@
       <c r="AS12" s="72"/>
     </row>
     <row r="13" spans="2:45" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="116" t="s">
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="192" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="25"/>
-      <c r="N13" s="106" t="s">
+      <c r="N13" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="108"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="185"/>
+      <c r="T13" s="185"/>
+      <c r="U13" s="185"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="185"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="185"/>
+      <c r="AA13" s="185"/>
+      <c r="AB13" s="185"/>
+      <c r="AC13" s="185"/>
+      <c r="AD13" s="185"/>
+      <c r="AE13" s="185"/>
+      <c r="AF13" s="185"/>
+      <c r="AG13" s="185"/>
+      <c r="AH13" s="185"/>
+      <c r="AI13" s="186"/>
       <c r="AJ13" s="75"/>
-      <c r="AK13" s="109" t="s">
+      <c r="AK13" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="AL13" s="110"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="111"/>
+      <c r="AL13" s="188"/>
+      <c r="AM13" s="188"/>
+      <c r="AN13" s="189"/>
       <c r="AO13" s="75"/>
-      <c r="AP13" s="109" t="s">
+      <c r="AP13" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="AQ13" s="110"/>
-      <c r="AR13" s="110"/>
-      <c r="AS13" s="111"/>
+      <c r="AQ13" s="188"/>
+      <c r="AR13" s="188"/>
+      <c r="AS13" s="189"/>
     </row>
     <row r="14" spans="2:45" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="114" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114" t="s">
+      <c r="I14" s="119"/>
+      <c r="J14" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118" t="s">
+      <c r="K14" s="193"/>
+      <c r="L14" s="194" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="180" t="s">
+      <c r="O14" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="185" t="s">
+      <c r="P14" s="130" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="54"/>
@@ -3784,57 +3761,57 @@
       <c r="AE14" s="54"/>
       <c r="AF14" s="54"/>
       <c r="AG14" s="76"/>
-      <c r="AH14" s="120" t="s">
+      <c r="AH14" s="196" t="s">
         <v>26</v>
       </c>
       <c r="AI14" s="77" t="s">
         <v>27</v>
       </c>
       <c r="AJ14" s="78"/>
-      <c r="AK14" s="123" t="s">
+      <c r="AK14" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="AL14" s="120" t="s">
+      <c r="AL14" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AM14" s="115" t="s">
+      <c r="AM14" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="AN14" s="126" t="s">
+      <c r="AN14" s="98" t="s">
         <v>31</v>
       </c>
       <c r="AO14" s="78"/>
-      <c r="AP14" s="123" t="s">
+      <c r="AP14" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="AQ14" s="120" t="s">
+      <c r="AQ14" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AR14" s="115" t="s">
+      <c r="AR14" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="AS14" s="126" t="s">
+      <c r="AS14" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B15" s="202"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="194"/>
       <c r="M15" s="25"/>
       <c r="N15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="181"/>
-      <c r="P15" s="186"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="131"/>
       <c r="Q15" s="55" t="s">
         <v>33</v>
       </c>
@@ -3886,41 +3863,41 @@
       <c r="AG15" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="119" t="s">
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="195" t="s">
         <v>22</v>
       </c>
       <c r="AJ15" s="78"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="125"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="127"/>
+      <c r="AK15" s="200"/>
+      <c r="AL15" s="135"/>
+      <c r="AM15" s="135"/>
+      <c r="AN15" s="99"/>
       <c r="AO15" s="78"/>
-      <c r="AP15" s="124"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="127"/>
+      <c r="AP15" s="200"/>
+      <c r="AQ15" s="135"/>
+      <c r="AR15" s="135"/>
+      <c r="AS15" s="99"/>
     </row>
     <row r="16" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B16" s="204"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="119"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="195"/>
       <c r="M16" s="28" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="29">
         <v>10</v>
       </c>
-      <c r="O16" s="181"/>
-      <c r="P16" s="186"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="131"/>
       <c r="Q16" s="57">
         <v>12</v>
       </c>
@@ -3972,49 +3949,49 @@
       <c r="AG16" s="80">
         <v>28</v>
       </c>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="122"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="198"/>
       <c r="AJ16" s="81"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="127"/>
+      <c r="AK16" s="200"/>
+      <c r="AL16" s="135"/>
+      <c r="AM16" s="135"/>
+      <c r="AN16" s="99"/>
       <c r="AO16" s="81"/>
-      <c r="AP16" s="124"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="127"/>
+      <c r="AP16" s="200"/>
+      <c r="AQ16" s="135"/>
+      <c r="AR16" s="135"/>
+      <c r="AS16" s="99"/>
     </row>
     <row r="17" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="190" t="s">
+      <c r="C17" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="113"/>
+      <c r="I17" s="191"/>
       <c r="J17" s="30"/>
       <c r="K17" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L17" s="32">
         <v>8</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="182">
+        <v>42</v>
+      </c>
+      <c r="O17" s="127">
         <v>42886</v>
       </c>
-      <c r="P17" s="187">
+      <c r="P17" s="132">
         <v>42888</v>
       </c>
       <c r="Q17" s="59"/>
@@ -4037,7 +4014,9 @@
       <c r="AH17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI17" s="82"/>
+      <c r="AI17" s="82">
+        <v>8</v>
+      </c>
       <c r="AJ17" s="78"/>
       <c r="AK17" s="83"/>
       <c r="AL17" s="84"/>
@@ -4049,16 +4028,16 @@
       <c r="AS17" s="36"/>
     </row>
     <row r="18" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B18" s="158"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="206" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="207"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="122"/>
       <c r="J18" s="35"/>
       <c r="K18" s="6"/>
       <c r="L18" s="36">
@@ -4066,8 +4045,8 @@
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="34"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="188"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="133"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
       <c r="S18" s="60"/>
@@ -4088,7 +4067,9 @@
       <c r="AH18" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI18" s="36"/>
+      <c r="AI18" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ18" s="78"/>
       <c r="AK18" s="83"/>
       <c r="AL18" s="84"/>
@@ -4100,16 +4081,16 @@
       <c r="AS18" s="36"/>
     </row>
     <row r="19" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B19" s="158"/>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="206" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="207"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="122"/>
       <c r="J19" s="35"/>
       <c r="K19" s="6"/>
       <c r="L19" s="36">
@@ -4117,8 +4098,8 @@
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="184"/>
-      <c r="P19" s="189"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="134"/>
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
       <c r="S19" s="60"/>
@@ -4139,7 +4120,9 @@
       <c r="AH19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI19" s="36"/>
+      <c r="AI19" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ19" s="78"/>
       <c r="AK19" s="83"/>
       <c r="AL19" s="84"/>
@@ -4151,18 +4134,18 @@
       <c r="AS19" s="36"/>
     </row>
     <row r="20" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B20" s="158"/>
-      <c r="C20" s="193"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="172" t="s">
+      <c r="B20" s="142"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="110"/>
+      <c r="J20" s="35" t="s">
         <v>46</v>
-      </c>
-      <c r="I20" s="173"/>
-      <c r="J20" s="35" t="s">
-        <v>47</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="36">
@@ -4196,7 +4179,9 @@
       <c r="AH20" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI20" s="36"/>
+      <c r="AI20" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ20" s="78"/>
       <c r="AK20" s="83"/>
       <c r="AL20" s="84"/>
@@ -4208,16 +4193,16 @@
       <c r="AS20" s="36"/>
     </row>
     <row r="21" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B21" s="158"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
       <c r="J21" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="36">
@@ -4251,7 +4236,9 @@
       <c r="AH21" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI21" s="36"/>
+      <c r="AI21" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ21" s="78"/>
       <c r="AK21" s="83"/>
       <c r="AL21" s="84"/>
@@ -4263,16 +4250,16 @@
       <c r="AS21" s="36"/>
     </row>
     <row r="22" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B22" s="158"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
       <c r="J22" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="36">
@@ -4306,7 +4293,9 @@
       <c r="AH22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI22" s="36"/>
+      <c r="AI22" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ22" s="78"/>
       <c r="AK22" s="83"/>
       <c r="AL22" s="84"/>
@@ -4318,16 +4307,16 @@
       <c r="AS22" s="36"/>
     </row>
     <row r="23" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B23" s="158"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="36">
@@ -4361,7 +4350,9 @@
       <c r="AH23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI23" s="36"/>
+      <c r="AI23" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ23" s="78"/>
       <c r="AK23" s="83"/>
       <c r="AL23" s="84"/>
@@ -4373,16 +4364,16 @@
       <c r="AS23" s="36"/>
     </row>
     <row r="24" spans="2:45" ht="23.25" customHeight="1">
-      <c r="B24" s="158"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="177"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="114"/>
       <c r="J24" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="36">
@@ -4416,7 +4407,9 @@
       <c r="AH24" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AI24" s="36"/>
+      <c r="AI24" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ24" s="78"/>
       <c r="AK24" s="83"/>
       <c r="AL24" s="84"/>
@@ -4427,33 +4420,31 @@
       <c r="AR24" s="93"/>
       <c r="AS24" s="36"/>
     </row>
-    <row r="25" spans="2:45" ht="15.75" customHeight="1">
-      <c r="B25" s="158"/>
-      <c r="C25" s="199" t="s">
+    <row r="25" spans="2:45" ht="38.25" customHeight="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="124"/>
+      <c r="J25" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="35" t="s">
-        <v>54</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="36">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="34"/>
       <c r="O25" s="37">
-        <v>42898</v>
+        <v>42905</v>
       </c>
       <c r="P25" s="37">
-        <v>42902</v>
+        <v>42906</v>
       </c>
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
@@ -4472,10 +4463,12 @@
       <c r="AE25" s="60"/>
       <c r="AF25" s="60"/>
       <c r="AG25" s="60"/>
-      <c r="AH25" s="31" t="s">
+      <c r="AH25" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AI25" s="36"/>
+      <c r="AI25" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ25" s="78"/>
       <c r="AK25" s="83"/>
       <c r="AL25" s="84"/>
@@ -4486,31 +4479,31 @@
       <c r="AR25" s="93"/>
       <c r="AS25" s="36"/>
     </row>
-    <row r="26" spans="2:45" ht="38.25" customHeight="1">
-      <c r="B26" s="158"/>
-      <c r="C26" s="193"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="194"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="38" t="s">
-        <v>56</v>
+    <row r="26" spans="2:45" ht="15.95" customHeight="1">
+      <c r="B26" s="142"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" s="124"/>
+      <c r="J26" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="36">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="34"/>
       <c r="O26" s="37">
-        <v>42905</v>
+        <v>42907</v>
       </c>
       <c r="P26" s="37">
-        <v>42906</v>
+        <v>42908</v>
       </c>
       <c r="Q26" s="60"/>
       <c r="R26" s="60"/>
@@ -4532,7 +4525,9 @@
       <c r="AH26" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AI26" s="36"/>
+      <c r="AI26" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ26" s="78"/>
       <c r="AK26" s="83"/>
       <c r="AL26" s="84"/>
@@ -4543,31 +4538,33 @@
       <c r="AR26" s="93"/>
       <c r="AS26" s="36"/>
     </row>
-    <row r="27" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B27" s="158"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="131" t="s">
+    <row r="27" spans="2:45" ht="33" customHeight="1">
+      <c r="B27" s="143"/>
+      <c r="C27" s="172" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="124"/>
+      <c r="J27" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="I27" s="132"/>
-      <c r="J27" s="35" t="s">
-        <v>58</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="36">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="34"/>
       <c r="O27" s="37">
-        <v>42907</v>
+        <v>42909</v>
       </c>
       <c r="P27" s="37">
-        <v>42908</v>
+        <v>42912</v>
       </c>
       <c r="Q27" s="60"/>
       <c r="R27" s="60"/>
@@ -4589,7 +4586,9 @@
       <c r="AH27" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AI27" s="36"/>
+      <c r="AI27" s="36">
+        <v>24</v>
+      </c>
       <c r="AJ27" s="78"/>
       <c r="AK27" s="83"/>
       <c r="AL27" s="84"/>
@@ -4600,33 +4599,35 @@
       <c r="AR27" s="93"/>
       <c r="AS27" s="36"/>
     </row>
-    <row r="28" spans="2:45" ht="33" customHeight="1">
-      <c r="B28" s="159"/>
-      <c r="C28" s="128" t="s">
+    <row r="28" spans="2:45" ht="15.95" customHeight="1">
+      <c r="B28" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131" t="s">
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="132"/>
+      <c r="I28" s="110"/>
       <c r="J28" s="35" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="36">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="34"/>
       <c r="O28" s="37">
-        <v>42909</v>
+        <v>42891</v>
       </c>
       <c r="P28" s="37">
-        <v>42912</v>
+        <v>42892</v>
       </c>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
@@ -4646,9 +4647,11 @@
       <c r="AF28" s="60"/>
       <c r="AG28" s="60"/>
       <c r="AH28" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI28" s="36"/>
+        <v>9</v>
+      </c>
+      <c r="AI28" s="36">
+        <v>16</v>
+      </c>
       <c r="AJ28" s="78"/>
       <c r="AK28" s="83"/>
       <c r="AL28" s="84"/>
@@ -4660,34 +4663,28 @@
       <c r="AS28" s="36"/>
     </row>
     <row r="29" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B29" s="160" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="163" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="172" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="173"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
       <c r="J29" s="35" t="s">
         <v>47</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="36">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="34"/>
       <c r="O29" s="37">
-        <v>42891</v>
+        <v>42893</v>
       </c>
       <c r="P29" s="37">
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="Q29" s="60"/>
       <c r="R29" s="60"/>
@@ -4709,7 +4706,9 @@
       <c r="AH29" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AI29" s="36"/>
+      <c r="AI29" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ29" s="78"/>
       <c r="AK29" s="83"/>
       <c r="AL29" s="84"/>
@@ -4721,14 +4720,14 @@
       <c r="AS29" s="36"/>
     </row>
     <row r="30" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B30" s="158"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="175"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="35" t="s">
         <v>48</v>
       </c>
@@ -4739,10 +4738,10 @@
       <c r="M30" s="33"/>
       <c r="N30" s="34"/>
       <c r="O30" s="37">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="P30" s="37">
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="Q30" s="60"/>
       <c r="R30" s="60"/>
@@ -4764,7 +4763,9 @@
       <c r="AH30" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AI30" s="36"/>
+      <c r="AI30" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ30" s="78"/>
       <c r="AK30" s="83"/>
       <c r="AL30" s="84"/>
@@ -4776,14 +4777,14 @@
       <c r="AS30" s="36"/>
     </row>
     <row r="31" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B31" s="158"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="175"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="112"/>
       <c r="J31" s="35" t="s">
         <v>49</v>
       </c>
@@ -4794,10 +4795,10 @@
       <c r="M31" s="33"/>
       <c r="N31" s="34"/>
       <c r="O31" s="37">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="P31" s="37">
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
@@ -4819,7 +4820,9 @@
       <c r="AH31" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AI31" s="36"/>
+      <c r="AI31" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ31" s="78"/>
       <c r="AK31" s="83"/>
       <c r="AL31" s="84"/>
@@ -4831,14 +4834,14 @@
       <c r="AS31" s="36"/>
     </row>
     <row r="32" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B32" s="158"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="175"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
       <c r="J32" s="35" t="s">
         <v>50</v>
       </c>
@@ -4849,10 +4852,10 @@
       <c r="M32" s="33"/>
       <c r="N32" s="34"/>
       <c r="O32" s="37">
-        <v>42895</v>
+        <v>42898</v>
       </c>
       <c r="P32" s="37">
-        <v>42895</v>
+        <v>42898</v>
       </c>
       <c r="Q32" s="60"/>
       <c r="R32" s="60"/>
@@ -4874,7 +4877,9 @@
       <c r="AH32" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AI32" s="36"/>
+      <c r="AI32" s="36">
+        <v>8</v>
+      </c>
       <c r="AJ32" s="78"/>
       <c r="AK32" s="83"/>
       <c r="AL32" s="84"/>
@@ -4886,28 +4891,30 @@
       <c r="AS32" s="36"/>
     </row>
     <row r="33" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B33" s="158"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="177"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="124"/>
       <c r="J33" s="35" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="36">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M33" s="33"/>
       <c r="N33" s="34"/>
       <c r="O33" s="37">
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="P33" s="37">
-        <v>42898</v>
+        <v>42900</v>
       </c>
       <c r="Q33" s="60"/>
       <c r="R33" s="60"/>
@@ -4929,7 +4936,9 @@
       <c r="AH33" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AI33" s="36"/>
+      <c r="AI33" s="36">
+        <v>16</v>
+      </c>
       <c r="AJ33" s="78"/>
       <c r="AK33" s="83"/>
       <c r="AL33" s="84"/>
@@ -4940,31 +4949,31 @@
       <c r="AR33" s="93"/>
       <c r="AS33" s="36"/>
     </row>
-    <row r="34" spans="2:45" ht="15.95" customHeight="1">
-      <c r="B34" s="158"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="132"/>
-      <c r="J34" s="35" t="s">
-        <v>66</v>
+    <row r="34" spans="2:45" ht="33" customHeight="1">
+      <c r="B34" s="143"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="176"/>
+      <c r="J34" s="39" t="s">
+        <v>64</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="36">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M34" s="33"/>
       <c r="N34" s="34"/>
       <c r="O34" s="37">
-        <v>42899</v>
+        <v>42901</v>
       </c>
       <c r="P34" s="37">
-        <v>42900</v>
+        <v>42907</v>
       </c>
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
@@ -4997,114 +5006,120 @@
       <c r="AR34" s="93"/>
       <c r="AS34" s="36"/>
     </row>
-    <row r="35" spans="2:45" ht="33" customHeight="1">
-      <c r="B35" s="159"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="133" t="s">
+    <row r="35" spans="2:45" ht="32.25" customHeight="1">
+      <c r="B35" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="180" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="181"/>
+      <c r="J35" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="134"/>
-      <c r="J35" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="36">
-        <v>40</v>
+      <c r="K35" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="41">
+        <v>8</v>
       </c>
       <c r="M35" s="33"/>
-      <c r="N35" s="34"/>
+      <c r="N35" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="O35" s="37">
-        <v>42901</v>
-      </c>
-      <c r="P35" s="37">
-        <v>42907</v>
-      </c>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="60"/>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="85" t="s">
+        <v>42908</v>
+      </c>
+      <c r="P35" s="42">
+        <v>42914</v>
+      </c>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AI35" s="36"/>
+      <c r="AI35" s="36">
+        <v>16</v>
+      </c>
       <c r="AJ35" s="78"/>
       <c r="AK35" s="83"/>
       <c r="AL35" s="84"/>
       <c r="AM35" s="84"/>
       <c r="AN35" s="36"/>
-      <c r="AP35" s="37"/>
-      <c r="AQ35" s="92"/>
-      <c r="AR35" s="93"/>
+      <c r="AP35" s="83"/>
+      <c r="AQ35" s="84"/>
+      <c r="AR35" s="84"/>
       <c r="AS35" s="36"/>
     </row>
-    <row r="36" spans="2:45" ht="32.25" customHeight="1">
-      <c r="B36" s="161" t="s">
+    <row r="36" spans="2:45" ht="96.75" customHeight="1">
+      <c r="B36" s="145"/>
+      <c r="C36" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="166"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="169"/>
+      <c r="J36" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="208" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="138"/>
-      <c r="J36" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36" s="31" t="s">
-        <v>42</v>
+      <c r="K36" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="L36" s="41">
         <v>8</v>
       </c>
       <c r="M36" s="33"/>
-      <c r="N36" s="34" t="s">
-        <v>43</v>
-      </c>
+      <c r="N36" s="44"/>
       <c r="O36" s="37">
-        <v>42908</v>
+        <v>42909</v>
       </c>
       <c r="P36" s="42">
-        <v>42914</v>
-      </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
+        <v>42911</v>
+      </c>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
+      <c r="AD36" s="61"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
       <c r="AH36" s="86" t="s">
         <v>9</v>
       </c>
@@ -5121,27 +5136,25 @@
       <c r="AR36" s="84"/>
       <c r="AS36" s="36"/>
     </row>
-    <row r="37" spans="2:45" ht="57" customHeight="1">
-      <c r="B37" s="161"/>
-      <c r="C37" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="I37" s="147"/>
+    <row r="37" spans="2:45" ht="33.75" customHeight="1">
+      <c r="B37" s="145"/>
+      <c r="C37" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="169"/>
       <c r="J37" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37" s="43" t="s">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K37" s="43"/>
       <c r="L37" s="41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M37" s="33"/>
       <c r="N37" s="44"/>
@@ -5149,13 +5162,13 @@
         <v>42909</v>
       </c>
       <c r="P37" s="42">
-        <v>42911</v>
+        <v>42912</v>
       </c>
       <c r="Q37" s="61"/>
       <c r="R37" s="61"/>
       <c r="S37" s="61"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="60"/>
       <c r="V37" s="61"/>
       <c r="W37" s="61"/>
       <c r="X37" s="61"/>
@@ -5168,13 +5181,12 @@
       <c r="AE37" s="61"/>
       <c r="AF37" s="61"/>
       <c r="AG37" s="61"/>
-      <c r="AH37" s="86" t="s">
-        <v>9</v>
+      <c r="AH37" s="85" t="s">
+        <v>7</v>
       </c>
       <c r="AI37" s="36">
-        <v>16</v>
-      </c>
-      <c r="AJ37" s="78"/>
+        <v>8</v>
+      </c>
       <c r="AK37" s="83"/>
       <c r="AL37" s="84"/>
       <c r="AM37" s="84"/>
@@ -5184,39 +5196,39 @@
       <c r="AR37" s="84"/>
       <c r="AS37" s="36"/>
     </row>
-    <row r="38" spans="2:45" ht="33.75" customHeight="1">
-      <c r="B38" s="161"/>
-      <c r="C38" s="148" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="146" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="147"/>
-      <c r="J38" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K38" s="43"/>
-      <c r="L38" s="41">
+    <row r="38" spans="2:45" ht="46.5" customHeight="1">
+      <c r="B38" s="145"/>
+      <c r="C38" s="171" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="168" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="169"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="96">
         <v>4</v>
       </c>
       <c r="M38" s="33"/>
       <c r="N38" s="44"/>
       <c r="O38" s="37">
-        <v>42909</v>
+        <v>42912</v>
       </c>
       <c r="P38" s="42">
-        <v>42912</v>
+        <v>42915</v>
       </c>
       <c r="Q38" s="61"/>
       <c r="R38" s="61"/>
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
-      <c r="U38" s="60"/>
+      <c r="U38" s="61"/>
       <c r="V38" s="61"/>
       <c r="W38" s="61"/>
       <c r="X38" s="61"/>
@@ -5244,53 +5256,57 @@
       <c r="AR38" s="84"/>
       <c r="AS38" s="36"/>
     </row>
-    <row r="39" spans="2:45" ht="27.75" customHeight="1">
-      <c r="B39" s="161"/>
-      <c r="C39" s="151" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="149" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="150"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="43" t="s">
-        <v>42</v>
-      </c>
+    <row r="39" spans="2:45" ht="48" customHeight="1">
+      <c r="B39" s="145"/>
+      <c r="C39" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="158"/>
+      <c r="H39" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="160"/>
+      <c r="J39" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39" s="45"/>
       <c r="L39" s="96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M39" s="33"/>
-      <c r="N39" s="44"/>
+      <c r="N39" s="34"/>
       <c r="O39" s="37">
-        <v>42912</v>
-      </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
-      <c r="Z39" s="61"/>
-      <c r="AA39" s="61"/>
-      <c r="AB39" s="61"/>
-      <c r="AC39" s="61"/>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61"/>
-      <c r="AF39" s="61"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="85" t="s">
+        <v>42908</v>
+      </c>
+      <c r="P39" s="42">
+        <v>42908</v>
+      </c>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="62"/>
+      <c r="AF39" s="62"/>
+      <c r="AG39" s="62"/>
+      <c r="AH39" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AI39" s="36"/>
+      <c r="AI39" s="36">
+        <v>8</v>
+      </c>
       <c r="AK39" s="83"/>
       <c r="AL39" s="84"/>
       <c r="AM39" s="84"/>
@@ -5300,34 +5316,28 @@
       <c r="AR39" s="84"/>
       <c r="AS39" s="36"/>
     </row>
-    <row r="40" spans="2:45" ht="48" customHeight="1">
-      <c r="B40" s="161"/>
-      <c r="C40" s="179" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="209" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="150"/>
-      <c r="J40" s="40" t="s">
-        <v>80</v>
-      </c>
+    <row r="40" spans="2:45" ht="19.5" customHeight="1">
+      <c r="B40" s="145"/>
+      <c r="C40" s="156" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="158"/>
+      <c r="H40" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="164"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="45"/>
       <c r="L40" s="96">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M40" s="33"/>
       <c r="N40" s="34"/>
-      <c r="O40" s="37">
-        <v>42908</v>
-      </c>
-      <c r="P40" s="42">
-        <v>42908</v>
-      </c>
+      <c r="O40" s="97"/>
+      <c r="P40" s="42"/>
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="S40" s="62"/>
@@ -5348,9 +5358,7 @@
       <c r="AH40" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AI40" s="36">
-        <v>8</v>
-      </c>
+      <c r="AI40" s="36"/>
       <c r="AK40" s="83"/>
       <c r="AL40" s="84"/>
       <c r="AM40" s="84"/>
@@ -5360,28 +5368,34 @@
       <c r="AR40" s="84"/>
       <c r="AS40" s="36"/>
     </row>
-    <row r="41" spans="2:45" ht="19.5" customHeight="1">
-      <c r="B41" s="161"/>
-      <c r="C41" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="210" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="139"/>
-      <c r="J41" s="40"/>
+    <row r="41" spans="2:45" ht="33" customHeight="1">
+      <c r="B41" s="145"/>
+      <c r="C41" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="160"/>
+      <c r="J41" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="K41" s="45"/>
-      <c r="L41" s="96">
-        <v>4</v>
+      <c r="L41" s="41">
+        <v>8</v>
       </c>
       <c r="M41" s="33"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="42"/>
+      <c r="O41" s="37">
+        <v>42909</v>
+      </c>
+      <c r="P41" s="42">
+        <v>42914</v>
+      </c>
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="S41" s="62"/>
@@ -5402,7 +5416,9 @@
       <c r="AH41" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AI41" s="36"/>
+      <c r="AI41" s="36">
+        <v>8</v>
+      </c>
       <c r="AK41" s="83"/>
       <c r="AL41" s="84"/>
       <c r="AM41" s="84"/>
@@ -5412,30 +5428,28 @@
       <c r="AR41" s="84"/>
       <c r="AS41" s="36"/>
     </row>
-    <row r="42" spans="2:45" ht="33" customHeight="1">
-      <c r="B42" s="161"/>
-      <c r="C42" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="150"/>
-      <c r="J42" s="40" t="s">
-        <v>84</v>
-      </c>
+    <row r="42" spans="2:45">
+      <c r="B42" s="145"/>
+      <c r="C42" s="156" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="160"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="45"/>
       <c r="L42" s="41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M42" s="33"/>
       <c r="N42" s="34"/>
       <c r="O42" s="37">
-        <v>42909</v>
+        <v>42914</v>
       </c>
       <c r="P42" s="42">
         <v>42914</v>
@@ -5457,11 +5471,11 @@
       <c r="AE42" s="62"/>
       <c r="AF42" s="62"/>
       <c r="AG42" s="62"/>
-      <c r="AH42" s="86" t="s">
-        <v>7</v>
+      <c r="AH42" s="85" t="s">
+        <v>9</v>
       </c>
       <c r="AI42" s="36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK42" s="83"/>
       <c r="AL42" s="84"/>
@@ -5473,30 +5487,32 @@
       <c r="AS42" s="36"/>
     </row>
     <row r="43" spans="2:45">
-      <c r="B43" s="161"/>
-      <c r="C43" s="140" t="s">
+      <c r="B43" s="145"/>
+      <c r="C43" s="156" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="160"/>
+      <c r="J43" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="150"/>
-      <c r="J43" s="40"/>
       <c r="K43" s="45"/>
-      <c r="L43" s="41">
-        <v>4</v>
+      <c r="L43" s="96">
+        <v>2</v>
       </c>
       <c r="M43" s="33"/>
       <c r="N43" s="34"/>
       <c r="O43" s="37">
-        <v>42914</v>
-      </c>
-      <c r="P43" s="42">
-        <v>42914</v>
+        <v>42913</v>
+      </c>
+      <c r="P43" s="37">
+        <v>42913</v>
       </c>
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
@@ -5516,10 +5532,10 @@
       <c r="AF43" s="62"/>
       <c r="AG43" s="62"/>
       <c r="AH43" s="85" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI43" s="36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="83"/>
       <c r="AL43" s="84"/>
@@ -5531,24 +5547,24 @@
       <c r="AS43" s="36"/>
     </row>
     <row r="44" spans="2:45">
-      <c r="B44" s="161"/>
-      <c r="C44" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="150"/>
-      <c r="J44" s="40" t="s">
-        <v>90</v>
+      <c r="B44" s="145"/>
+      <c r="C44" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="160"/>
+      <c r="J44" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="K44" s="45"/>
       <c r="L44" s="96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="33"/>
       <c r="N44" s="34"/>
@@ -5578,177 +5594,86 @@
       <c r="AH44" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AI44" s="36">
+      <c r="AI44" s="87">
         <v>1</v>
       </c>
       <c r="AK44" s="83"/>
       <c r="AL44" s="84"/>
       <c r="AM44" s="84"/>
       <c r="AN44" s="36"/>
-      <c r="AP44" s="83"/>
-      <c r="AQ44" s="84"/>
-      <c r="AR44" s="84"/>
-      <c r="AS44" s="36"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="94"/>
+      <c r="AR44" s="95"/>
+      <c r="AS44" s="89"/>
     </row>
     <row r="45" spans="2:45">
-      <c r="B45" s="161"/>
-      <c r="C45" s="140" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="150"/>
-      <c r="J45" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="96">
-        <v>1</v>
-      </c>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="37">
-        <v>42913</v>
-      </c>
-      <c r="P45" s="37">
-        <v>42913</v>
-      </c>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="62"/>
-      <c r="AH45" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI45" s="87">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="83"/>
-      <c r="AL45" s="84"/>
-      <c r="AM45" s="84"/>
-      <c r="AN45" s="36"/>
-      <c r="AP45" s="51"/>
-      <c r="AQ45" s="94"/>
-      <c r="AR45" s="95"/>
-      <c r="AS45" s="89"/>
-    </row>
-    <row r="46" spans="2:45">
-      <c r="B46" s="162"/>
-      <c r="C46" s="152" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="155" t="s">
-        <v>82</v>
-      </c>
-      <c r="I46" s="156"/>
-      <c r="J46" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" s="49">
+      <c r="B45" s="146"/>
+      <c r="C45" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="140"/>
+      <c r="J45" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="49">
         <v>4</v>
       </c>
-      <c r="M46" s="14"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="51">
+      <c r="M45" s="14"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="51">
         <v>42912</v>
       </c>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="63"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="63"/>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="63"/>
-      <c r="AH46" s="88" t="s">
+      <c r="P45" s="52"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="63"/>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AI46" s="89"/>
+      <c r="AI45" s="89">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="AS14:AS16"/>
-    <mergeCell ref="C17:G24"/>
-    <mergeCell ref="H20:I24"/>
-    <mergeCell ref="C25:G27"/>
-    <mergeCell ref="B14:G16"/>
-    <mergeCell ref="H14:I16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="AR14:AR16"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="B36:B46"/>
-    <mergeCell ref="C29:G35"/>
-    <mergeCell ref="H29:I33"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:I36"/>
+  <mergeCells count="76">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:AS2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="S7:U7"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="N13:AI13"/>
     <mergeCell ref="AK13:AN13"/>
@@ -5765,20 +5690,52 @@
     <mergeCell ref="AN14:AN16"/>
     <mergeCell ref="AP14:AP16"/>
     <mergeCell ref="AQ14:AQ16"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:AS2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C28:G34"/>
+    <mergeCell ref="H28:I32"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="AS14:AS16"/>
+    <mergeCell ref="C17:G24"/>
+    <mergeCell ref="H20:I24"/>
+    <mergeCell ref="C25:G26"/>
+    <mergeCell ref="B14:G16"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="AR14:AR16"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="C6">
@@ -5786,7 +5743,7 @@
       <formula>$C$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:AG37 N17:N37">
+  <conditionalFormatting sqref="Q17:AG36 N17:N36">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
@@ -5798,28 +5755,28 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH28:AH38 AH42:AH44 H6">
+      <formula1>"王鹏瑕,王利,雷勇,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM36 N4:R11 AR17:AR36">
+      <formula1>"魏清源,张珊"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"王鹏瑕,王利,陈航,姚文祝"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 AH29:AH39 AH43:AH45">
-      <formula1>"王鹏瑕,王利,雷勇,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11">
       <formula1>"王鹏瑕,王利,陈航,姚文祝,崔倍倍,刘昕,杨锋"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM37 AR17:AR37 N4:R11">
-      <formula1>"魏清源,张珊"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8 AM17:AM36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8 AM17:AM35">
       <formula1>"王鹏瑕,王玉龙,徐凯,徐德贵,龙耀"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H10 AH17:AH28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H10 AH17:AH27">
       <formula1>"王鹏瑕,王利,陈航,姚文祝,崔倍倍,刘昕"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:K36">
       <formula1>"一般,简单,难"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N17:N37 Q17:AG37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q17:AG36 N17:N36">
       <formula1>"P,X,C,D"</formula1>
     </dataValidation>
   </dataValidations>
